--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -1,38 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherry\PycharmProjects\pythonProject1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407A1C6-16F3-4120-8AA0-482DC4DB674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Gmina</t>
+  </si>
+  <si>
+    <t>Powiat</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Belno</t>
+  </si>
+  <si>
+    <t>Bieliny</t>
+  </si>
+  <si>
+    <t>Kielecki</t>
+  </si>
+  <si>
+    <t>Belno to wieś położona w gminie Bieliny, w powiecie kieleckim, w województwie świętokrzyskim. Miejscowość leży na terenie Płaskowyżu Suchedniowskiego, w pobliżu rzeki Hanna.
+Belno liczy około 600 mieszkańców i jest typową wiejską społecznością, w której dominują rolnicy i osoby związane z pracami sezonowymi w rolnictwie. We wsi znajduje się kilka sklepów, ośrodek zdrowia i szkoła podstawowa.
+W okolicy Belna można znaleźć wiele atrakcyjnych miejsc, takich jak zalew w Bielinach, Klasztor Ojców Lewińskich w Wąchocku oraz liczne szlaki turystyczne prowadzące przez malownicze tereny Płaskowyżu Suchedniowskiego. Wieś ta z powodzeniem może stanowić doskonałą bazę wypadową dla miłośników turystyki pieszej i rowerowej.</t>
+  </si>
+  <si>
+    <t>Zagnańsk</t>
+  </si>
+  <si>
+    <t>Belno to wieś położona w województwie świętokrzyskim, w powiecie kieleckim, w gminie Zagnańsk. Miejscowość położona jest w malowniczej okolicy, otoczonej lasami i polami. W samym Belnie znajduje się kilka sklepów, kościół oraz szkoła podstawowa.
+We wsi można zobaczyć wiele ciekawych zabytków, takich jak drewniany kościół św. Katarzyny z XVIII wieku, czy zabytkowe chałupy. Nieopodal Belna znajduje się także rezerwat przyrody Dąbrowa Belneńska, gdzie rosną rzadkie gatunki roślin i występują rzadkie gatunki ptaków.
+Belno to bardzo spokojna i urokliwa wieś, idealna dla osób szukających ciszy i kontaktu z naturą. Mieszkańcy są przyjaźni i pomocni, a atmosfera jest bardzo rodzinna. W okolicach Belna znajduje się wiele atrakcyjnych turystycznie miejsc, takich jak Kielce, Kazimierz Dolny czy Sandomierz.</t>
+  </si>
+  <si>
+    <t>Pawłowice</t>
+  </si>
+  <si>
+    <t>Pszczyński</t>
+  </si>
+  <si>
+    <t>Pawłowice to wieś położona w województwie śląskim, w powiecie pszczyńskim, niedaleko miasta Pszczyna. Znajduje się ona na południowy wschód od Pszczyny, w dolinie rzeki Gostynki.
+W Pawłowicach mieszka około 1,5 tysiąca ludzi. Wieś ta jest siedzibą gminy Pawłowice i pełni funkcję centrum administracyjnego dla kilku okolicznych wsi. W Pawłowicach znajduje się wiele sklepów, aptek, stacji benzynowych oraz innych punktów usługowych, co czyni je miejscem ważnym dla lokalnej społeczności.
+Pawłowice położone są w malowniczej okolicy, w otoczeniu wzgórz i lasów. W miejscowości znajdują się ciekawe zabytki, takie jak kościół pw. św. Anny oraz dworek Gołuchów, który pełni dzisiaj funkcję centrum kultury.
+Warto także zwrócić uwagę na okoliczne atrakcje turystyczne, takie jak rezerwat przyrody Las Łęgowy oraz Park Krajobrazowy Lasy nad Górną Wisłą, gdzie można podziwiać piękne krajobrazy oraz dziką przyrodę.
+Pawłowice to z pewnością malownicza i ciekawa wieś, w której można spędzić miło czas, wypocząć oraz zwiedzić liczne atrakcje turystyczne.</t>
+  </si>
+  <si>
+    <t>Chlastawa</t>
+  </si>
+  <si>
+    <t>Zbąszynek</t>
+  </si>
+  <si>
+    <t>Chlastawa to wieś położona w gminie Zbąszynek w powiecie świebodzińskim, w województwie lubuskim. Liczy około 300 mieszkańców i zajmuje powierzchnię blisko 10 km².
+Wieś otoczona jest pięknymi lasami oraz wzniesieniami, co przyciąga turystów z całego regionu. W okolicy znajdują się także liczne jeziora, co stanowi dodatkową atrakcję dla miłośników wodnych sportów i rekreacji.
+Chlastawa posiada dobrze rozwiniętą infrastrukturę tj. sklep spożywczy, kościół, szkołę podstawową oraz przedszkole. W miejscowości działa także kilka klubów sportowych, organizujących różnego rodzaju imprezy i zawody.
+W Chlastawie panuje przyjazna atmosfera i silne związki społeczne, co sprawia, że wieś jest nie tylko miejscem zamieszkania, ale także centrum aktywności kulturalnej i rozrywkowej dla mieszkańców i turystów.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,83 +135,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,141 +440,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A6:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="89" customWidth="1" min="4" max="4"/>
+    <col min="4" max="4" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nazwa</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Gmina</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Powiat</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Opis</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Belno</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bieliny</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Kielecki</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Belno to wieś położona w gminie Bieliny, w powiecie kieleckim, w województwie świętokrzyskim. Miejscowość leży na terenie Płaskowyżu Suchedniowskiego, w pobliżu rzeki Hanna.
-Belno liczy około 600 mieszkańców i jest typową wiejską społecznością, w której dominują rolnicy i osoby związane z pracami sezonowymi w rolnictwie. We wsi znajduje się kilka sklepów, ośrodek zdrowia i szkoła podstawowa.
-W okolicy Belna można znaleźć wiele atrakcyjnych miejsc, takich jak zalew w Bielinach, Klasztor Ojców Lewińskich w Wąchocku oraz liczne szlaki turystyczne prowadzące przez malownicze tereny Płaskowyżu Suchedniowskiego. Wieś ta z powodzeniem może stanowić doskonałą bazę wypadową dla miłośników turystyki pieszej i rowerowej.</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Belno</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Zagnańsk</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kielecki</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Belno to wieś położona w województwie świętokrzyskim, w powiecie kieleckim, w gminie Zagnańsk. Miejscowość położona jest w malowniczej okolicy, otoczonej lasami i polami. W samym Belnie znajduje się kilka sklepów, kościół oraz szkoła podstawowa.
-We wsi można zobaczyć wiele ciekawych zabytków, takich jak drewniany kościół św. Katarzyny z XVIII wieku, czy zabytkowe chałupy. Nieopodal Belna znajduje się także rezerwat przyrody Dąbrowa Belneńska, gdzie rosną rzadkie gatunki roślin i występują rzadkie gatunki ptaków.
-Belno to bardzo spokojna i urokliwa wieś, idealna dla osób szukających ciszy i kontaktu z naturą. Mieszkańcy są przyjaźni i pomocni, a atmosfera jest bardzo rodzinna. W okolicach Belna znajduje się wiele atrakcyjnych turystycznie miejsc, takich jak Kielce, Kazimierz Dolny czy Sandomierz.</t>
-        </is>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pawłowice</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pawłowice</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pszczyński</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Pawłowice to wieś położona w województwie śląskim, w powiecie pszczyńskim, niedaleko miasta Pszczyna. Znajduje się ona na południowy wschód od Pszczyny, w dolinie rzeki Gostynki.
-W Pawłowicach mieszka około 1,5 tysiąca ludzi. Wieś ta jest siedzibą gminy Pawłowice i pełni funkcję centrum administracyjnego dla kilku okolicznych wsi. W Pawłowicach znajduje się wiele sklepów, aptek, stacji benzynowych oraz innych punktów usługowych, co czyni je miejscem ważnym dla lokalnej społeczności.
-Pawłowice położone są w malowniczej okolicy, w otoczeniu wzgórz i lasów. W miejscowości znajdują się ciekawe zabytki, takie jak kościół pw. św. Anny oraz dworek Gołuchów, który pełni dzisiaj funkcję centrum kultury.
-Warto także zwrócić uwagę na okoliczne atrakcje turystyczne, takie jak rezerwat przyrody Las Łęgowy oraz Park Krajobrazowy Lasy nad Górną Wisłą, gdzie można podziwiać piękne krajobrazy oraz dziką przyrodę.
-Pawłowice to z pewnością malownicza i ciekawa wieś, w której można spędzić miło czas, wypocząć oraz zwiedzić liczne atrakcje turystyczne.</t>
-        </is>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chlastawa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Zbąszynek</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Powiat</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Chlastawa to wieś położona w gminie Zbąszynek w powiecie świebodzińskim, w województwie lubuskim. Liczy około 300 mieszkańców i zajmuje powierzchnię blisko 10 km².
-Wieś otoczona jest pięknymi lasami oraz wzniesieniami, co przyciąga turystów z całego regionu. W okolicy znajdują się także liczne jeziora, co stanowi dodatkową atrakcję dla miłośników wodnych sportów i rekreacji.
-Chlastawa posiada dobrze rozwiniętą infrastrukturę tj. sklep spożywczy, kościół, szkołę podstawową oraz przedszkole. W miejscowości działa także kilka klubów sportowych, organizujących różnego rodzaju imprezy i zawody.
-W Chlastawie panuje przyjazna atmosfera i silne związki społeczne, co sprawia, że wieś jest nie tylko miejscem zamieszkania, ale także centrum aktywności kulturalnej i rozrywkowej dla mieszkańców i turystów.</t>
-        </is>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
